--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA810963-0644-4EA9-BEC2-A0EF3F2E32DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F10B4-5CA1-4F9E-8ECA-B3B168643B16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A91CD1D-025C-4BF2-9937-CCC7C6DA4192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5A91CD1D-025C-4BF2-9937-CCC7C6DA4192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2707,7 +2708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B7FFE3-7778-4855-A576-AF6B567D79E2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
@@ -2838,4 +2839,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1359C769-BE2A-45B8-8FEC-5984CD231EDB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>